--- a/teacher.xlsx
+++ b/teacher.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
   <si>
     <t>DANH SÁCH CÁN BỘ</t>
   </si>
@@ -83,6 +83,60 @@
   </si>
   <si>
     <t>10/2/2001</t>
+  </si>
+  <si>
+    <t>GV5</t>
+  </si>
+  <si>
+    <t>2210son@gmail.com</t>
+  </si>
+  <si>
+    <t>GV6</t>
+  </si>
+  <si>
+    <t>20son@gmail.com</t>
+  </si>
+  <si>
+    <t>GV7</t>
+  </si>
+  <si>
+    <t>2son@gmail.com</t>
+  </si>
+  <si>
+    <t>GV8</t>
+  </si>
+  <si>
+    <t>son@gmail.com</t>
+  </si>
+  <si>
+    <t>GV9</t>
+  </si>
+  <si>
+    <t>s@gmail.com</t>
+  </si>
+  <si>
+    <t>GV10</t>
+  </si>
+  <si>
+    <t>soo@gmail.com</t>
+  </si>
+  <si>
+    <t>GV11</t>
+  </si>
+  <si>
+    <t>soo1@gmail.com</t>
+  </si>
+  <si>
+    <t>GV12</t>
+  </si>
+  <si>
+    <t>sow@gmail.com</t>
+  </si>
+  <si>
+    <t>GV13</t>
+  </si>
+  <si>
+    <t>so2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -470,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -582,6 +636,267 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>

--- a/teacher.xlsx
+++ b/teacher.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>DANH SÁCH CÁN BỘ</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>so2@gmail.com</t>
+  </si>
+  <si>
+    <t>SHCB14</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn A</t>
+  </si>
+  <si>
+    <t>A2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -524,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -897,6 +906,35 @@
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
